--- a/Code/Results/Cases/Case_5_150/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_150/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.49367901180492</v>
+        <v>17.50317888919334</v>
       </c>
       <c r="C2">
-        <v>13.60735435990799</v>
+        <v>11.07942455786873</v>
       </c>
       <c r="D2">
-        <v>4.324130188299994</v>
+        <v>4.944133667519678</v>
       </c>
       <c r="E2">
-        <v>6.776418702070658</v>
+        <v>11.70524948033952</v>
       </c>
       <c r="F2">
-        <v>18.74549590729168</v>
+        <v>24.80316302425874</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.33432269384622</v>
+        <v>9.752315673379817</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.70352153661857</v>
+        <v>22.16467789400161</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.84040970600842</v>
+        <v>16.84879125733272</v>
       </c>
       <c r="C3">
-        <v>13.04616566882119</v>
+        <v>10.85001874445005</v>
       </c>
       <c r="D3">
-        <v>4.222619353561607</v>
+        <v>4.913707733208515</v>
       </c>
       <c r="E3">
-        <v>6.879996903583277</v>
+        <v>11.76323444131394</v>
       </c>
       <c r="F3">
-        <v>18.27305602333764</v>
+        <v>24.85419479756033</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.057977896551691</v>
+        <v>9.719777783250368</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.59934741537654</v>
+        <v>22.26503839062524</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.76576984087112</v>
+        <v>16.43507335361597</v>
       </c>
       <c r="C4">
-        <v>12.69014504704196</v>
+        <v>10.70643155393468</v>
       </c>
       <c r="D4">
-        <v>4.159261858404364</v>
+        <v>4.894950157265217</v>
       </c>
       <c r="E4">
-        <v>6.949173196256803</v>
+        <v>11.80116870401735</v>
       </c>
       <c r="F4">
-        <v>18.0049701840665</v>
+        <v>24.89489621898645</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.8865132260871</v>
+        <v>9.701404343723132</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.55768594952427</v>
+        <v>22.33383275546878</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.31277194139655</v>
+        <v>16.26372241909267</v>
       </c>
       <c r="C5">
-        <v>12.54232829011941</v>
+        <v>10.64729319014796</v>
       </c>
       <c r="D5">
-        <v>4.133206522346651</v>
+        <v>4.887290831353241</v>
       </c>
       <c r="E5">
-        <v>6.978711332847958</v>
+        <v>11.81721351895127</v>
       </c>
       <c r="F5">
-        <v>17.90126302773683</v>
+        <v>24.9138261725084</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.816284241464432</v>
+        <v>9.694325670249009</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.54607965793996</v>
+        <v>22.36366128648249</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.2366385565164</v>
+        <v>16.23511070378862</v>
       </c>
       <c r="C6">
-        <v>12.51762283136756</v>
+        <v>10.63743738191201</v>
       </c>
       <c r="D6">
-        <v>4.128866441637737</v>
+        <v>4.886018177948229</v>
       </c>
       <c r="E6">
-        <v>6.983696038313064</v>
+        <v>11.81991316183899</v>
       </c>
       <c r="F6">
-        <v>17.8843768734155</v>
+        <v>24.91711066439516</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.804604217695609</v>
+        <v>9.693175083761375</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.54446962737266</v>
+        <v>22.36872238322292</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.75972172240086</v>
+        <v>16.43277328385421</v>
       </c>
       <c r="C7">
-        <v>12.68816240900085</v>
+        <v>10.70563644253129</v>
       </c>
       <c r="D7">
-        <v>4.158911394652985</v>
+        <v>4.894846918752858</v>
       </c>
       <c r="E7">
-        <v>6.949566167752819</v>
+        <v>11.80138271599663</v>
       </c>
       <c r="F7">
-        <v>18.00354912931558</v>
+        <v>24.89514204168989</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.885567402675992</v>
+        <v>9.701307217238222</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.55750799971162</v>
+        <v>22.33422778110378</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.93592217574685</v>
+        <v>17.28015647762706</v>
       </c>
       <c r="C8">
-        <v>13.41631198055444</v>
+        <v>11.00092820694904</v>
       </c>
       <c r="D8">
-        <v>4.289355720075945</v>
+        <v>4.933660746441594</v>
       </c>
       <c r="E8">
-        <v>6.810940264081429</v>
+        <v>11.72475888665873</v>
       </c>
       <c r="F8">
-        <v>18.57804720879791</v>
+        <v>24.81880784429946</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.239463277546483</v>
+        <v>9.740766662241732</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.66283605306674</v>
+        <v>22.19778796857987</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.73601388932658</v>
+        <v>18.83800791761071</v>
       </c>
       <c r="C9">
-        <v>14.74815711323738</v>
+        <v>11.55577663214021</v>
       </c>
       <c r="D9">
-        <v>4.536104119454344</v>
+        <v>5.009013080883248</v>
       </c>
       <c r="E9">
-        <v>6.586066294650923</v>
+        <v>11.59299367616743</v>
       </c>
       <c r="F9">
-        <v>19.87762449965851</v>
+        <v>24.74390582622751</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.915675065998655</v>
+        <v>9.830641276665938</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.05600722110167</v>
+        <v>21.98754856570948</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.2499655362338</v>
+        <v>19.90849999955314</v>
       </c>
       <c r="C10">
-        <v>15.66253054802349</v>
+        <v>11.94546786629334</v>
       </c>
       <c r="D10">
-        <v>4.710827327393825</v>
+        <v>5.06369840805197</v>
       </c>
       <c r="E10">
-        <v>6.453631686116662</v>
+        <v>11.5074551766894</v>
       </c>
       <c r="F10">
-        <v>20.93486185517729</v>
+        <v>24.73499735289434</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.39762167658483</v>
+        <v>9.90394426481234</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.4703947087969</v>
+        <v>21.86856891161256</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.33485083583674</v>
+        <v>20.37758168278804</v>
       </c>
       <c r="C11">
-        <v>16.06375944911683</v>
+        <v>12.11823920890677</v>
       </c>
       <c r="D11">
-        <v>4.788708489166178</v>
+        <v>5.088384418048396</v>
       </c>
       <c r="E11">
-        <v>6.401535469012111</v>
+        <v>11.470988053739</v>
       </c>
       <c r="F11">
-        <v>21.4373025134659</v>
+        <v>24.74103849321756</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.613012535718189</v>
+        <v>9.938789744124014</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.68825297457807</v>
+        <v>21.82225644401422</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.73735876816916</v>
+        <v>20.55251141460298</v>
       </c>
       <c r="C12">
-        <v>16.21352933306538</v>
+        <v>12.18296948771392</v>
       </c>
       <c r="D12">
-        <v>4.817957481767018</v>
+        <v>5.097701144788984</v>
       </c>
       <c r="E12">
-        <v>6.383075914445372</v>
+        <v>11.45753055120785</v>
       </c>
       <c r="F12">
-        <v>21.63059417528598</v>
+        <v>24.74478123313568</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.693983336065466</v>
+        <v>9.952193066900399</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.77511409382204</v>
+        <v>21.80585097232767</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.65103914432527</v>
+        <v>20.51495917433761</v>
       </c>
       <c r="C13">
-        <v>16.18137071449067</v>
+        <v>12.16906026678991</v>
       </c>
       <c r="D13">
-        <v>4.811669169764722</v>
+        <v>5.095696076470507</v>
       </c>
       <c r="E13">
-        <v>6.386993483532816</v>
+        <v>11.46041321420489</v>
       </c>
       <c r="F13">
-        <v>21.58883154939503</v>
+        <v>24.74391041298667</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.676571720999542</v>
+        <v>9.949297289707328</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.75621087601384</v>
+        <v>21.80933370131454</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.36813127723837</v>
+        <v>20.39202807111112</v>
       </c>
       <c r="C14">
-        <v>16.07612476623512</v>
+        <v>12.1235787846558</v>
       </c>
       <c r="D14">
-        <v>4.791119754458465</v>
+        <v>5.089151561001841</v>
       </c>
       <c r="E14">
-        <v>6.399990792592081</v>
+        <v>11.46987384465645</v>
       </c>
       <c r="F14">
-        <v>21.4531443627005</v>
+        <v>24.74131723411847</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.619686127439184</v>
+        <v>9.93988831727953</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.69531089929492</v>
+        <v>21.82088401945842</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.19376319078424</v>
+        <v>20.31637390677404</v>
       </c>
       <c r="C15">
-        <v>16.01137517844378</v>
+        <v>12.09562827868108</v>
       </c>
       <c r="D15">
-        <v>4.778500671434287</v>
+        <v>5.085138660448373</v>
       </c>
       <c r="E15">
-        <v>6.408120174755408</v>
+        <v>11.47571457739535</v>
       </c>
       <c r="F15">
-        <v>21.37042474038955</v>
+        <v>24.73991840994905</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.584763829911751</v>
+        <v>9.934151921195255</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.65858000643827</v>
+        <v>21.82810660143348</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.17789502044549</v>
+        <v>19.87747300273864</v>
       </c>
       <c r="C16">
-        <v>15.63600844989141</v>
+        <v>11.93408216381562</v>
       </c>
       <c r="D16">
-        <v>4.705704257501671</v>
+        <v>5.062080947922857</v>
       </c>
       <c r="E16">
-        <v>6.457208317750879</v>
+        <v>11.50988760467895</v>
       </c>
       <c r="F16">
-        <v>20.90245313350171</v>
+        <v>24.73480601242019</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.38346430627951</v>
+        <v>9.901696568549392</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.45676035264042</v>
+        <v>21.87175348980992</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.53974275272944</v>
+        <v>19.60354211103058</v>
       </c>
       <c r="C17">
-        <v>15.40192209906037</v>
+        <v>11.83379132265263</v>
       </c>
       <c r="D17">
-        <v>4.660626200663747</v>
+        <v>5.047884169919157</v>
       </c>
       <c r="E17">
-        <v>6.489475344792034</v>
+        <v>11.53147798287333</v>
       </c>
       <c r="F17">
-        <v>20.62082582009246</v>
+        <v>24.73425810902024</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.258956286743723</v>
+        <v>9.882165072762501</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.3405751206481</v>
+        <v>21.9005365882751</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.16715897034938</v>
+        <v>19.44430687535155</v>
       </c>
       <c r="C18">
-        <v>15.26589791426401</v>
+        <v>11.77568561968884</v>
       </c>
       <c r="D18">
-        <v>4.634548393642113</v>
+        <v>5.039700849704854</v>
       </c>
       <c r="E18">
-        <v>6.508795230867166</v>
+        <v>11.54412629373975</v>
       </c>
       <c r="F18">
-        <v>20.46086809476713</v>
+        <v>24.73489292762911</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.186981971800517</v>
+        <v>9.871072692562556</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.2765038668267</v>
+        <v>21.91782666785988</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.04005391919404</v>
+        <v>19.39010867105873</v>
       </c>
       <c r="C19">
-        <v>15.21960651937465</v>
+        <v>11.75594120355313</v>
       </c>
       <c r="D19">
-        <v>4.625693536993106</v>
+        <v>5.036927196375851</v>
       </c>
       <c r="E19">
-        <v>6.515464472715362</v>
+        <v>11.54844830661446</v>
       </c>
       <c r="F19">
-        <v>20.40705936377211</v>
+        <v>24.73527088215525</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.162552148144567</v>
+        <v>9.867341551237772</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.25527905440602</v>
+        <v>21.92380672344629</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.60824712988399</v>
+        <v>19.63287711771608</v>
       </c>
       <c r="C20">
-        <v>15.42698462374752</v>
+        <v>11.8445113852684</v>
       </c>
       <c r="D20">
-        <v>4.665440470137757</v>
+        <v>5.049397302446822</v>
       </c>
       <c r="E20">
-        <v>6.485961059359227</v>
+        <v>11.52915583442147</v>
       </c>
       <c r="F20">
-        <v>20.65059624867226</v>
+        <v>24.73421808502912</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.272248017637523</v>
+        <v>9.88422963039606</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.35265697418736</v>
+        <v>21.89739646469363</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.4514527663611</v>
+        <v>20.42821016875099</v>
       </c>
       <c r="C21">
-        <v>16.10709718239827</v>
+        <v>12.13695700583499</v>
       </c>
       <c r="D21">
-        <v>4.797162298481964</v>
+        <v>5.091074725201718</v>
       </c>
       <c r="E21">
-        <v>6.396137940580691</v>
+        <v>11.4670854781151</v>
       </c>
       <c r="F21">
-        <v>21.49291723579784</v>
+        <v>24.74203940287781</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.6364111641379</v>
+        <v>9.942646374502933</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.71307924364465</v>
+        <v>21.81746061996481</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.60769514171454</v>
+        <v>20.93221310807184</v>
       </c>
       <c r="C22">
-        <v>16.53894719716628</v>
+        <v>12.3240196593571</v>
       </c>
       <c r="D22">
-        <v>4.881829922180431</v>
+        <v>5.118128921544525</v>
       </c>
       <c r="E22">
-        <v>6.344875931689006</v>
+        <v>11.42856964173136</v>
       </c>
       <c r="F22">
-        <v>22.06105437563363</v>
+        <v>24.75563286880457</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.870945036713692</v>
+        <v>9.982034329774541</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.9741207284641</v>
+        <v>21.77182016282527</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.99497084081371</v>
+        <v>20.66470044453176</v>
       </c>
       <c r="C23">
-        <v>16.30963025671979</v>
+        <v>12.22456769586513</v>
       </c>
       <c r="D23">
-        <v>4.836774781469833</v>
+        <v>5.103707748270598</v>
       </c>
       <c r="E23">
-        <v>6.371520376789966</v>
+        <v>11.44893853586347</v>
       </c>
       <c r="F23">
-        <v>21.75623307043503</v>
+        <v>24.7476009661322</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.74609760004118</v>
+        <v>9.960904160279069</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.8324235161089</v>
+        <v>21.79557245513082</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.5772940697559</v>
+        <v>19.61962019812038</v>
       </c>
       <c r="C24">
-        <v>15.41565835272491</v>
+        <v>11.83966623417953</v>
       </c>
       <c r="D24">
-        <v>4.663264441992672</v>
+        <v>5.048713281583237</v>
       </c>
       <c r="E24">
-        <v>6.487547479283386</v>
+        <v>11.53020494351307</v>
       </c>
       <c r="F24">
-        <v>20.63713094799026</v>
+        <v>24.73423322151087</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.266240047072717</v>
+        <v>9.883295818029573</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.34718629082993</v>
+        <v>21.89881380297144</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.75732308489046</v>
+        <v>18.42888426474833</v>
       </c>
       <c r="C25">
-        <v>14.39878743843858</v>
+        <v>11.40861025147835</v>
       </c>
       <c r="D25">
-        <v>4.470436582803388</v>
+        <v>4.988731648774444</v>
       </c>
       <c r="E25">
-        <v>6.641468833784324</v>
+        <v>11.62666038224048</v>
       </c>
       <c r="F25">
-        <v>19.50780469675139</v>
+        <v>24.75610118112085</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.735102315613078</v>
+        <v>9.80502428543344</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.92837278831166</v>
+        <v>22.0382306151687</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_150/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_150/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.50317888919334</v>
+        <v>24.49367901180499</v>
       </c>
       <c r="C2">
-        <v>11.07942455786873</v>
+        <v>13.60735435990818</v>
       </c>
       <c r="D2">
-        <v>4.944133667519678</v>
+        <v>4.324130188300147</v>
       </c>
       <c r="E2">
-        <v>11.70524948033952</v>
+        <v>6.776418702070708</v>
       </c>
       <c r="F2">
-        <v>24.80316302425874</v>
+        <v>18.74549590729146</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.752315673379817</v>
+        <v>7.334322693846238</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.16467789400161</v>
+        <v>14.70352153661843</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.84879125733272</v>
+        <v>22.84040970600835</v>
       </c>
       <c r="C3">
-        <v>10.85001874445005</v>
+        <v>13.0461656688215</v>
       </c>
       <c r="D3">
-        <v>4.913707733208515</v>
+        <v>4.222619353561571</v>
       </c>
       <c r="E3">
-        <v>11.76323444131394</v>
+        <v>6.879996903583345</v>
       </c>
       <c r="F3">
-        <v>24.85419479756033</v>
+        <v>18.27305602333783</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.719777783250368</v>
+        <v>7.057977896551659</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.26503839062524</v>
+        <v>14.59934741537673</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.43507335361597</v>
+        <v>21.76576984087116</v>
       </c>
       <c r="C4">
-        <v>10.70643155393468</v>
+        <v>12.69014504704213</v>
       </c>
       <c r="D4">
-        <v>4.894950157265217</v>
+        <v>4.159261858404159</v>
       </c>
       <c r="E4">
-        <v>11.80116870401735</v>
+        <v>6.949173196256919</v>
       </c>
       <c r="F4">
-        <v>24.89489621898645</v>
+        <v>18.00497018406643</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.701404343723132</v>
+        <v>6.88651322608713</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.33383275546878</v>
+        <v>14.55768594952418</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.26372241909267</v>
+        <v>21.31277194139655</v>
       </c>
       <c r="C5">
-        <v>10.64729319014796</v>
+        <v>12.54232829011949</v>
       </c>
       <c r="D5">
-        <v>4.887290831353241</v>
+        <v>4.133206522346705</v>
       </c>
       <c r="E5">
-        <v>11.81721351895127</v>
+        <v>6.978711332847902</v>
       </c>
       <c r="F5">
-        <v>24.9138261725084</v>
+        <v>17.90126302773684</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.694325670249009</v>
+        <v>6.81628424146436</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.36366128648249</v>
+        <v>14.54607965793993</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.23511070378862</v>
+        <v>21.23663855651643</v>
       </c>
       <c r="C6">
-        <v>10.63743738191201</v>
+        <v>12.51762283136759</v>
       </c>
       <c r="D6">
-        <v>4.886018177948229</v>
+        <v>4.128866441637856</v>
       </c>
       <c r="E6">
-        <v>11.81991316183899</v>
+        <v>6.983696038313003</v>
       </c>
       <c r="F6">
-        <v>24.91711066439516</v>
+        <v>17.88437687341532</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.693175083761375</v>
+        <v>6.804604217695576</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.36872238322292</v>
+        <v>14.54446962737248</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.43277328385421</v>
+        <v>21.75972172240083</v>
       </c>
       <c r="C7">
-        <v>10.70563644253129</v>
+        <v>12.6881624090009</v>
       </c>
       <c r="D7">
-        <v>4.894846918752858</v>
+        <v>4.158911394653093</v>
       </c>
       <c r="E7">
-        <v>11.80138271599663</v>
+        <v>6.949566167752819</v>
       </c>
       <c r="F7">
-        <v>24.89514204168989</v>
+        <v>18.00354912931573</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.701307217238222</v>
+        <v>6.885567402676005</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.33422778110378</v>
+        <v>14.55750799971182</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.28015647762706</v>
+        <v>23.93592217574687</v>
       </c>
       <c r="C8">
-        <v>11.00092820694904</v>
+        <v>13.41631198055462</v>
       </c>
       <c r="D8">
-        <v>4.933660746441594</v>
+        <v>4.289355720076002</v>
       </c>
       <c r="E8">
-        <v>11.72475888665873</v>
+        <v>6.810940264081497</v>
       </c>
       <c r="F8">
-        <v>24.81880784429946</v>
+        <v>18.57804720879796</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.740766662241732</v>
+        <v>7.239463277546466</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.19778796857987</v>
+        <v>14.66283605306679</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.83800791761071</v>
+        <v>27.73601388932662</v>
       </c>
       <c r="C9">
-        <v>11.55577663214021</v>
+        <v>14.74815711323746</v>
       </c>
       <c r="D9">
-        <v>5.009013080883248</v>
+        <v>4.536104119454225</v>
       </c>
       <c r="E9">
-        <v>11.59299367616743</v>
+        <v>6.586066294650816</v>
       </c>
       <c r="F9">
-        <v>24.74390582622751</v>
+        <v>19.87762449965852</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.830641276665938</v>
+        <v>7.915675065998627</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.98754856570948</v>
+        <v>15.05600722110165</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.90849999955314</v>
+        <v>30.24996553623382</v>
       </c>
       <c r="C10">
-        <v>11.94546786629334</v>
+        <v>15.66253054802348</v>
       </c>
       <c r="D10">
-        <v>5.06369840805197</v>
+        <v>4.71082732739391</v>
       </c>
       <c r="E10">
-        <v>11.5074551766894</v>
+        <v>6.453631686116716</v>
       </c>
       <c r="F10">
-        <v>24.73499735289434</v>
+        <v>20.93486185517727</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.90394426481234</v>
+        <v>8.397621676584864</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.86856891161256</v>
+        <v>15.47039470879691</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.37758168278804</v>
+        <v>31.33485083583671</v>
       </c>
       <c r="C11">
-        <v>12.11823920890677</v>
+        <v>16.06375944911676</v>
       </c>
       <c r="D11">
-        <v>5.088384418048396</v>
+        <v>4.788708489166228</v>
       </c>
       <c r="E11">
-        <v>11.470988053739</v>
+        <v>6.401535469012111</v>
       </c>
       <c r="F11">
-        <v>24.74103849321756</v>
+        <v>21.4373025134659</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.938789744124014</v>
+        <v>8.613012535718218</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.82225644401422</v>
+        <v>15.6882529745781</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.55251141460298</v>
+        <v>31.73735876816916</v>
       </c>
       <c r="C12">
-        <v>12.18296948771392</v>
+        <v>16.21352933306548</v>
       </c>
       <c r="D12">
-        <v>5.097701144788984</v>
+        <v>4.817957481767118</v>
       </c>
       <c r="E12">
-        <v>11.45753055120785</v>
+        <v>6.383075914445311</v>
       </c>
       <c r="F12">
-        <v>24.74478123313568</v>
+        <v>21.63059417528591</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.952193066900399</v>
+        <v>8.693983336065454</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.80585097232767</v>
+        <v>15.77511409382202</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.51495917433761</v>
+        <v>31.65103914432528</v>
       </c>
       <c r="C13">
-        <v>12.16906026678991</v>
+        <v>16.18137071449067</v>
       </c>
       <c r="D13">
-        <v>5.095696076470507</v>
+        <v>4.811669169764761</v>
       </c>
       <c r="E13">
-        <v>11.46041321420489</v>
+        <v>6.386993483532819</v>
       </c>
       <c r="F13">
-        <v>24.74391041298667</v>
+        <v>21.58883154939502</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.949297289707328</v>
+        <v>8.676571720999547</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.80933370131454</v>
+        <v>15.75621087601379</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.39202807111112</v>
+        <v>31.36813127723839</v>
       </c>
       <c r="C14">
-        <v>12.1235787846558</v>
+        <v>16.07612476623524</v>
       </c>
       <c r="D14">
-        <v>5.089151561001841</v>
+        <v>4.791119754458553</v>
       </c>
       <c r="E14">
-        <v>11.46987384465645</v>
+        <v>6.399990792592178</v>
       </c>
       <c r="F14">
-        <v>24.74131723411847</v>
+        <v>21.45314436270045</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.93988831727953</v>
+        <v>8.619686127439193</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.82088401945842</v>
+        <v>15.69531089929486</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.31637390677404</v>
+        <v>31.1937631907842</v>
       </c>
       <c r="C15">
-        <v>12.09562827868108</v>
+        <v>16.01137517844373</v>
       </c>
       <c r="D15">
-        <v>5.085138660448373</v>
+        <v>4.77850067143442</v>
       </c>
       <c r="E15">
-        <v>11.47571457739535</v>
+        <v>6.408120174755457</v>
       </c>
       <c r="F15">
-        <v>24.73991840994905</v>
+        <v>21.37042474038955</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.934151921195255</v>
+        <v>8.584763829911791</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.82810660143348</v>
+        <v>15.65858000643832</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.87747300273864</v>
+        <v>30.1778950204455</v>
       </c>
       <c r="C16">
-        <v>11.93408216381562</v>
+        <v>15.63600844989134</v>
       </c>
       <c r="D16">
-        <v>5.062080947922857</v>
+        <v>4.70570425750175</v>
       </c>
       <c r="E16">
-        <v>11.50988760467895</v>
+        <v>6.457208317750932</v>
       </c>
       <c r="F16">
-        <v>24.73480601242019</v>
+        <v>20.90245313350168</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.901696568549392</v>
+        <v>8.383464306279546</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.87175348980992</v>
+        <v>15.45676035264042</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.60354211103058</v>
+        <v>29.53974275272945</v>
       </c>
       <c r="C17">
-        <v>11.83379132265263</v>
+        <v>15.40192209906028</v>
       </c>
       <c r="D17">
-        <v>5.047884169919157</v>
+        <v>4.660626200663655</v>
       </c>
       <c r="E17">
-        <v>11.53147798287333</v>
+        <v>6.489475344791994</v>
       </c>
       <c r="F17">
-        <v>24.73425810902024</v>
+        <v>20.62082582009241</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.882165072762501</v>
+        <v>8.258956286743709</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.9005365882751</v>
+        <v>15.34057512064801</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.44430687535155</v>
+        <v>29.16715897034934</v>
       </c>
       <c r="C18">
-        <v>11.77568561968884</v>
+        <v>15.26589791426393</v>
       </c>
       <c r="D18">
-        <v>5.039700849704854</v>
+        <v>4.634548393642181</v>
       </c>
       <c r="E18">
-        <v>11.54412629373975</v>
+        <v>6.508795230867132</v>
       </c>
       <c r="F18">
-        <v>24.73489292762911</v>
+        <v>20.46086809476719</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.871072692562556</v>
+        <v>8.186981971800517</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.91782666785988</v>
+        <v>15.27650386682679</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.39010867105873</v>
+        <v>29.04005391919407</v>
       </c>
       <c r="C19">
-        <v>11.75594120355313</v>
+        <v>15.2196065193747</v>
       </c>
       <c r="D19">
-        <v>5.036927196375851</v>
+        <v>4.625693536993142</v>
       </c>
       <c r="E19">
-        <v>11.54844830661446</v>
+        <v>6.515464472715419</v>
       </c>
       <c r="F19">
-        <v>24.73527088215525</v>
+        <v>20.40705936377213</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.867341551237772</v>
+        <v>8.162552148144574</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.92380672344629</v>
+        <v>15.25527905440602</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.63287711771608</v>
+        <v>29.608247129884</v>
       </c>
       <c r="C20">
-        <v>11.8445113852684</v>
+        <v>15.42698462374754</v>
       </c>
       <c r="D20">
-        <v>5.049397302446822</v>
+        <v>4.665440470137784</v>
       </c>
       <c r="E20">
-        <v>11.52915583442147</v>
+        <v>6.485961059359169</v>
       </c>
       <c r="F20">
-        <v>24.73421808502912</v>
+        <v>20.65059624867223</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.88422963039606</v>
+        <v>8.272248017637516</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.89739646469363</v>
+        <v>15.35265697418735</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.42821016875099</v>
+        <v>31.45145276636117</v>
       </c>
       <c r="C21">
-        <v>12.13695700583499</v>
+        <v>16.10709718239822</v>
       </c>
       <c r="D21">
-        <v>5.091074725201718</v>
+        <v>4.797162298482153</v>
       </c>
       <c r="E21">
-        <v>11.4670854781151</v>
+        <v>6.396137940580696</v>
       </c>
       <c r="F21">
-        <v>24.74203940287781</v>
+        <v>21.49291723579778</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.942646374502933</v>
+        <v>8.636411164137916</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.81746061996481</v>
+        <v>15.7130792436446</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.93221310807184</v>
+        <v>32.60769514171452</v>
       </c>
       <c r="C22">
-        <v>12.3240196593571</v>
+        <v>16.53894719716638</v>
       </c>
       <c r="D22">
-        <v>5.118128921544525</v>
+        <v>4.881829922180467</v>
       </c>
       <c r="E22">
-        <v>11.42856964173136</v>
+        <v>6.344875931689216</v>
       </c>
       <c r="F22">
-        <v>24.75563286880457</v>
+        <v>22.06105437563369</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.982034329774541</v>
+        <v>8.870945036713705</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.77182016282527</v>
+        <v>15.97412072846418</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.66470044453176</v>
+        <v>31.99497084081369</v>
       </c>
       <c r="C23">
-        <v>12.22456769586513</v>
+        <v>16.30963025671973</v>
       </c>
       <c r="D23">
-        <v>5.103707748270598</v>
+        <v>4.83677478146984</v>
       </c>
       <c r="E23">
-        <v>11.44893853586347</v>
+        <v>6.371520376789916</v>
       </c>
       <c r="F23">
-        <v>24.7476009661322</v>
+        <v>21.75623307043502</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.960904160279069</v>
+        <v>8.746097600041185</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.79557245513082</v>
+        <v>15.8324235161089</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.61962019812038</v>
+        <v>29.57729406975592</v>
       </c>
       <c r="C24">
-        <v>11.83966623417953</v>
+        <v>15.41565835272493</v>
       </c>
       <c r="D24">
-        <v>5.048713281583237</v>
+        <v>4.663264441992779</v>
       </c>
       <c r="E24">
-        <v>11.53020494351307</v>
+        <v>6.48754747928339</v>
       </c>
       <c r="F24">
-        <v>24.73423322151087</v>
+        <v>20.63713094799023</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.883295818029573</v>
+        <v>8.266240047072717</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.89881380297144</v>
+        <v>15.34718629082991</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.42888426474833</v>
+        <v>26.75732308489049</v>
       </c>
       <c r="C25">
-        <v>11.40861025147835</v>
+        <v>14.39878743843871</v>
       </c>
       <c r="D25">
-        <v>4.988731648774444</v>
+        <v>4.470436582803394</v>
       </c>
       <c r="E25">
-        <v>11.62666038224048</v>
+        <v>6.641468833784381</v>
       </c>
       <c r="F25">
-        <v>24.75610118112085</v>
+        <v>19.50780469675137</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.80502428543344</v>
+        <v>7.735102315613078</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.0382306151687</v>
+        <v>14.92837278831164</v>
       </c>
     </row>
   </sheetData>
